--- a/results/WES.xlsx
+++ b/results/WES.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P132"/>
+  <dimension ref="A1:P187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6848,6 +6848,2644 @@
       </c>
       <c r="P132" t="n">
         <v>-32.00997989993637</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>83</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>0.2634507119655609</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-26.68959593499457</v>
+      </c>
+      <c r="F133" t="b">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>5.760005809994842</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-26.9734327352259</v>
+      </c>
+      <c r="J133" t="n">
+        <v>30</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>32.44960174498942</v>
+      </c>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>131</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>0.215290755033493</v>
+      </c>
+      <c r="E134" t="n">
+        <v>14.25195657948778</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>14.25195657948778</v>
+      </c>
+      <c r="H134" t="n">
+        <v>52</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-26.21450370911573</v>
+      </c>
+      <c r="J134" t="n">
+        <v>13</v>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>8</v>
+      </c>
+      <c r="M134" t="n">
+        <v>-18.83592501009487</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>-33.08788158958265</v>
+      </c>
+      <c r="P134" t="n">
+        <v>-33.08788158958265</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>174</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>0.2365133613348007</v>
+      </c>
+      <c r="E135" t="n">
+        <v>69.46501805080764</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>69.46501805080764</v>
+      </c>
+      <c r="H135" t="n">
+        <v>52</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-10.66668979176865</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>378</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>0.7779337763786316</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-12.13155849609736</v>
+      </c>
+      <c r="F136" t="b">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-16.66666283570786</v>
+      </c>
+      <c r="J136" t="n">
+        <v>22</v>
+      </c>
+      <c r="K136" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>12.13155849609736</v>
+      </c>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>413</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>0.7009530067443848</v>
+      </c>
+      <c r="E137" t="n">
+        <v>8.945088622147544</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>8.945088622147544</v>
+      </c>
+      <c r="H137" t="n">
+        <v>44</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-6.982415707014403</v>
+      </c>
+      <c r="J137" t="n">
+        <v>35</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>22</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-5.857182458563067</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>-14.80227108071061</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-14.80227108071061</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>466</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>0.8000184297561646</v>
+      </c>
+      <c r="E138" t="n">
+        <v>56.41433273913839</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>59.67591317054984</v>
+      </c>
+      <c r="H138" t="n">
+        <v>40</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-4.545447292052775</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>3.261580431411453</v>
+      </c>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>566</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>1.376109957695007</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-2.477518586630362</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>32.80684158547128</v>
+      </c>
+      <c r="H139" t="n">
+        <v>14</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-2.818209110256091</v>
+      </c>
+      <c r="J139" t="n">
+        <v>52</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>19</v>
+      </c>
+      <c r="M139" t="n">
+        <v>22.27125448309362</v>
+      </c>
+      <c r="N139" t="n">
+        <v>35.28436017210164</v>
+      </c>
+      <c r="O139" t="n">
+        <v>24.74877306972398</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-10.53558710237766</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>633</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>1.587212562561035</v>
+      </c>
+      <c r="E140" t="n">
+        <v>46.28717675100778</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>58.471128206166</v>
+      </c>
+      <c r="H140" t="n">
+        <v>48</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-13.95458666266561</v>
+      </c>
+      <c r="J140" t="n">
+        <v>7</v>
+      </c>
+      <c r="K140" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>12.18395145515822</v>
+      </c>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>656</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>1.714674711227417</v>
+      </c>
+      <c r="E141" t="n">
+        <v>122.0369759340655</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>128.7995246130852</v>
+      </c>
+      <c r="H141" t="n">
+        <v>52</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-8.491238290713572</v>
+      </c>
+      <c r="J141" t="n">
+        <v>5</v>
+      </c>
+      <c r="K141" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>6.762548679019702</v>
+      </c>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>714</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>3.968261480331421</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-2.933286549974631</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>10.16831283534032</v>
+      </c>
+      <c r="H142" t="n">
+        <v>19</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-12.73862269624473</v>
+      </c>
+      <c r="J142" t="n">
+        <v>42</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>15</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-0.04394952083606828</v>
+      </c>
+      <c r="N142" t="n">
+        <v>13.10159938531495</v>
+      </c>
+      <c r="O142" t="n">
+        <v>2.889337029138562</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-10.21226235617639</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>733</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>4.272938251495361</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-22.690422643631</v>
+      </c>
+      <c r="F143" t="b">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2.312892545214742</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-22.82106854788286</v>
+      </c>
+      <c r="J143" t="n">
+        <v>52</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>22</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-15.02676430903199</v>
+      </c>
+      <c r="N143" t="n">
+        <v>25.00331518884574</v>
+      </c>
+      <c r="O143" t="n">
+        <v>7.663658334599006</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-17.33965685424673</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>802</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>3.713207244873047</v>
+      </c>
+      <c r="E144" t="n">
+        <v>31.76611242095963</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>40.70742302359394</v>
+      </c>
+      <c r="H144" t="n">
+        <v>46</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-3.732178710523363</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>26</v>
+      </c>
+      <c r="M144" t="n">
+        <v>6.192174040343346</v>
+      </c>
+      <c r="N144" t="n">
+        <v>8.94131060263431</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-25.57393838061628</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-34.51524898325059</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>811</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>3.960373878479004</v>
+      </c>
+      <c r="E145" t="n">
+        <v>31.83761471004897</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>34.57318096008635</v>
+      </c>
+      <c r="H145" t="n">
+        <v>47</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-3.607509875363458</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>17</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-0.4352714933924444</v>
+      </c>
+      <c r="N145" t="n">
+        <v>2.735566250037383</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-32.27288620344142</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-35.0084524534788</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>840</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>4.892748832702637</v>
+      </c>
+      <c r="E146" t="n">
+        <v>52.12850061564173</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>55.17793643387596</v>
+      </c>
+      <c r="H146" t="n">
+        <v>49</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-4.999967987961011</v>
+      </c>
+      <c r="J146" t="n">
+        <v>10</v>
+      </c>
+      <c r="K146" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>3.049435818234237</v>
+      </c>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>865</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>5.5304274559021</v>
+      </c>
+      <c r="E147" t="n">
+        <v>39.92262729554989</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>42.83099974187616</v>
+      </c>
+      <c r="H147" t="n">
+        <v>30</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-2.476884494703625</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>33</v>
+      </c>
+      <c r="M147" t="n">
+        <v>30.65084448403698</v>
+      </c>
+      <c r="N147" t="n">
+        <v>2.908372446326268</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-9.27178281151291</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-12.18015525783918</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>915</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>7.733551979064941</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-11.92395024081856</v>
+      </c>
+      <c r="F148" t="b">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.796379721153433</v>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-12.67189055822153</v>
+      </c>
+      <c r="J148" t="n">
+        <v>52</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>44</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-8.700075482010163</v>
+      </c>
+      <c r="N148" t="n">
+        <v>13.720329961972</v>
+      </c>
+      <c r="O148" t="n">
+        <v>3.223874758808401</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-10.4964552031636</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>940</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>7.252244472503662</v>
+      </c>
+      <c r="E149" t="n">
+        <v>12.84976933812933</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>16.47875271566182</v>
+      </c>
+      <c r="H149" t="n">
+        <v>51</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-10.20401587476471</v>
+      </c>
+      <c r="J149" t="n">
+        <v>29</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>19</v>
+      </c>
+      <c r="M149" t="n">
+        <v>-2.640801117281483</v>
+      </c>
+      <c r="N149" t="n">
+        <v>3.628983377532485</v>
+      </c>
+      <c r="O149" t="n">
+        <v>-15.49057045541082</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-19.1195538329433</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>985</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>7.937938213348389</v>
+      </c>
+      <c r="E150" t="n">
+        <v>20.19382638246759</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>26.72064179933185</v>
+      </c>
+      <c r="H150" t="n">
+        <v>28</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-6.283423938444583</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>12</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-0.3351221774075103</v>
+      </c>
+      <c r="N150" t="n">
+        <v>6.526815416864263</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-20.5289485598751</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-27.05576397673936</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>991</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>8.203243255615234</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.395031972660364</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>22.62230847176163</v>
+      </c>
+      <c r="H151" t="n">
+        <v>22</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-9.004248762008448</v>
+      </c>
+      <c r="J151" t="n">
+        <v>52</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>6</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-3.558432007351084</v>
+      </c>
+      <c r="N151" t="n">
+        <v>16.22727649910127</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-9.953463980011449</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-26.18074047911271</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>9.289793014526367</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.4418105063374237</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>8.280197781159547</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-19.64726431843395</v>
+      </c>
+      <c r="J152" t="n">
+        <v>32</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>9</v>
+      </c>
+      <c r="M152" t="n">
+        <v>-12.24345948600634</v>
+      </c>
+      <c r="N152" t="n">
+        <v>7.838387274822123</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-12.68526999234376</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-20.52365726716589</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>9.626860618591309</v>
+      </c>
+      <c r="E153" t="n">
+        <v>-34.22717035374232</v>
+      </c>
+      <c r="F153" t="b">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>11.55095589782104</v>
+      </c>
+      <c r="H153" t="n">
+        <v>16</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-60.17933957061822</v>
+      </c>
+      <c r="J153" t="n">
+        <v>30</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>15</v>
+      </c>
+      <c r="M153" t="n">
+        <v>-22.99999653276365</v>
+      </c>
+      <c r="N153" t="n">
+        <v>45.77812625156335</v>
+      </c>
+      <c r="O153" t="n">
+        <v>11.22717382097867</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-34.55095243058469</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1101</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>4.821714878082275</v>
+      </c>
+      <c r="E154" t="n">
+        <v>103.0401897018246</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>106.1438351195587</v>
+      </c>
+      <c r="H154" t="n">
+        <v>52</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-3.519069681088449</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>3.103645417734029</v>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1109</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>6.41952657699585</v>
+      </c>
+      <c r="E155" t="n">
+        <v>36.55868875858175</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>54.83490642172291</v>
+      </c>
+      <c r="H155" t="n">
+        <v>44</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-11.45376003055953</v>
+      </c>
+      <c r="J155" t="n">
+        <v>4</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>51</v>
+      </c>
+      <c r="M155" t="n">
+        <v>40.28849884232187</v>
+      </c>
+      <c r="N155" t="n">
+        <v>18.27621766314115</v>
+      </c>
+      <c r="O155" t="n">
+        <v>3.729810083740119</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-14.54640757940103</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1138</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>8.545698165893555</v>
+      </c>
+      <c r="E156" t="n">
+        <v>19.81958335481574</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>25.89191779653845</v>
+      </c>
+      <c r="H156" t="n">
+        <v>45</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-8.512842354256209</v>
+      </c>
+      <c r="J156" t="n">
+        <v>11</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>22</v>
+      </c>
+      <c r="M156" t="n">
+        <v>5.384689382013732</v>
+      </c>
+      <c r="N156" t="n">
+        <v>6.072334441722717</v>
+      </c>
+      <c r="O156" t="n">
+        <v>-14.434893972802</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-20.50722841452472</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1174</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>9.305154800415041</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-0.001137625879347526</v>
+      </c>
+      <c r="F157" t="b">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>17.04441106360541</v>
+      </c>
+      <c r="H157" t="n">
+        <v>29</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-4.631716699928109</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>32</v>
+      </c>
+      <c r="M157" t="n">
+        <v>7.127031405238511</v>
+      </c>
+      <c r="N157" t="n">
+        <v>17.04554868948475</v>
+      </c>
+      <c r="O157" t="n">
+        <v>7.128169031117858</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-9.917379658366894</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1179</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>10.37841510772705</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-3.518906448181233</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>4.940528217972161</v>
+      </c>
+      <c r="H158" t="n">
+        <v>24</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-20.37220559843991</v>
+      </c>
+      <c r="J158" t="n">
+        <v>49</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>27</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-3.951268070546288</v>
+      </c>
+      <c r="N158" t="n">
+        <v>8.459434666153394</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-0.4323616223650544</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-8.891796288518449</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1183</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>10.16220188140869</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.796672735638604</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>7.17326581188575</v>
+      </c>
+      <c r="H159" t="n">
+        <v>20</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-18.67802725666997</v>
+      </c>
+      <c r="J159" t="n">
+        <v>45</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>23</v>
+      </c>
+      <c r="M159" t="n">
+        <v>-1.907714276142071</v>
+      </c>
+      <c r="N159" t="n">
+        <v>4.376593076247145</v>
+      </c>
+      <c r="O159" t="n">
+        <v>-4.704387011780675</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-9.08098008802782</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>10.47726154327393</v>
+      </c>
+      <c r="E160" t="n">
+        <v>-7.080388541812209</v>
+      </c>
+      <c r="F160" t="b">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>5.355182678014907</v>
+      </c>
+      <c r="H160" t="n">
+        <v>39</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-21.12344423217494</v>
+      </c>
+      <c r="J160" t="n">
+        <v>25</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>3</v>
+      </c>
+      <c r="M160" t="n">
+        <v>-4.857428019957756</v>
+      </c>
+      <c r="N160" t="n">
+        <v>12.43557121982711</v>
+      </c>
+      <c r="O160" t="n">
+        <v>2.222960521854453</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-10.21261069797266</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1241</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>10.9126787185669</v>
+      </c>
+      <c r="E161" t="n">
+        <v>11.77987188944496</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>17.22222687240956</v>
+      </c>
+      <c r="H161" t="n">
+        <v>43</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-12.24244432420567</v>
+      </c>
+      <c r="J161" t="n">
+        <v>15</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>5</v>
+      </c>
+      <c r="M161" t="n">
+        <v>-7.575768565888737</v>
+      </c>
+      <c r="N161" t="n">
+        <v>5.442354982964595</v>
+      </c>
+      <c r="O161" t="n">
+        <v>-19.3556404553337</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-24.79799543829829</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1268</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>10.10477352142334</v>
+      </c>
+      <c r="E162" t="n">
+        <v>55.29454001902484</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>60.06949608605806</v>
+      </c>
+      <c r="H162" t="n">
+        <v>52</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-3.790194721266592</v>
+      </c>
+      <c r="J162" t="n">
+        <v>3</v>
+      </c>
+      <c r="K162" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>4.774956067033216</v>
+      </c>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1283</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>12.2764196395874</v>
+      </c>
+      <c r="E163" t="n">
+        <v>25.49468998837001</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>31.75388697386837</v>
+      </c>
+      <c r="H163" t="n">
+        <v>37</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-2.57822581767568</v>
+      </c>
+      <c r="J163" t="n">
+        <v>5</v>
+      </c>
+      <c r="K163" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>6.259196985498356</v>
+      </c>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1336</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>15.30774021148682</v>
+      </c>
+      <c r="E164" t="n">
+        <v>14.66497260133413</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>15.57749812799474</v>
+      </c>
+      <c r="H164" t="n">
+        <v>52</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-1.113862334351708</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>39</v>
+      </c>
+      <c r="M164" t="n">
+        <v>6.604954642696565</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0.9125255266606036</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-8.06001795863757</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-8.972543485298171</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1362</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>16.69966125488281</v>
+      </c>
+      <c r="E165" t="n">
+        <v>7.772420595579978</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>12.09756670199764</v>
+      </c>
+      <c r="H165" t="n">
+        <v>51</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-5.528678255218605</v>
+      </c>
+      <c r="J165" t="n">
+        <v>3</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>13</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-2.280595634801344</v>
+      </c>
+      <c r="N165" t="n">
+        <v>4.325146106417667</v>
+      </c>
+      <c r="O165" t="n">
+        <v>-10.05301623038132</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-14.37816233679899</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1386</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>17.1959171295166</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-2.771081677973533</v>
+      </c>
+      <c r="F166" t="b">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>8.862550180980998</v>
+      </c>
+      <c r="H166" t="n">
+        <v>27</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-8.393732761332471</v>
+      </c>
+      <c r="J166" t="n">
+        <v>45</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>17</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-4.21486592203991</v>
+      </c>
+      <c r="N166" t="n">
+        <v>11.63363185895453</v>
+      </c>
+      <c r="O166" t="n">
+        <v>-1.443784244066377</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-13.07741610302091</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1389</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>17.46081924438477</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-4.321121704325021</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>7.210971330684068</v>
+      </c>
+      <c r="H167" t="n">
+        <v>24</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-9.783512564161894</v>
+      </c>
+      <c r="J167" t="n">
+        <v>42</v>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>14</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-5.668044277250375</v>
+      </c>
+      <c r="N167" t="n">
+        <v>11.53209303500909</v>
+      </c>
+      <c r="O167" t="n">
+        <v>-1.346922572925354</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-12.87901560793444</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>17.85070610046387</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2.520528296508002</v>
+      </c>
+      <c r="F168" t="b">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>4.869318943710934</v>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-12.47663801154103</v>
+      </c>
+      <c r="J168" t="n">
+        <v>41</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>41</v>
+      </c>
+      <c r="M168" t="n">
+        <v>-6.840753160276875</v>
+      </c>
+      <c r="N168" t="n">
+        <v>2.348790647202932</v>
+      </c>
+      <c r="O168" t="n">
+        <v>-9.361281456784877</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-11.71007210398781</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1447</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>17.76777648925781</v>
+      </c>
+      <c r="E169" t="n">
+        <v>12.71430031371599</v>
+      </c>
+      <c r="F169" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>17.67043693031173</v>
+      </c>
+      <c r="H169" t="n">
+        <v>51</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-12.06813003725747</v>
+      </c>
+      <c r="J169" t="n">
+        <v>4</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>4</v>
+      </c>
+      <c r="M169" t="n">
+        <v>-6.405940164664398</v>
+      </c>
+      <c r="N169" t="n">
+        <v>4.956136616595733</v>
+      </c>
+      <c r="O169" t="n">
+        <v>-19.12024047838039</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-24.07637709497612</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1463</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>18.08749961853028</v>
+      </c>
+      <c r="E170" t="n">
+        <v>5.050269116748087</v>
+      </c>
+      <c r="F170" t="b">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>15.59043908032286</v>
+      </c>
+      <c r="H170" t="n">
+        <v>35</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-8.790962594242387</v>
+      </c>
+      <c r="J170" t="n">
+        <v>3</v>
+      </c>
+      <c r="K170" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
+        <v>10.54016996357477</v>
+      </c>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1491</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>19.51621627807617</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.9602313030401124</v>
+      </c>
+      <c r="F171" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>9.744605396480463</v>
+      </c>
+      <c r="H171" t="n">
+        <v>31</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-7.780236050772671</v>
+      </c>
+      <c r="J171" t="n">
+        <v>11</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>39</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2.57272248033107</v>
+      </c>
+      <c r="N171" t="n">
+        <v>8.78437409344035</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1.612491177290958</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-7.171882916149393</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1495</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="n">
+        <v>19.99050331115723</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.8166757801732525</v>
+      </c>
+      <c r="F172" t="b">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>7.140846877749346</v>
+      </c>
+      <c r="H172" t="n">
+        <v>27</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-9.968206886429563</v>
+      </c>
+      <c r="J172" t="n">
+        <v>7</v>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>35</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0.1391213116656096</v>
+      </c>
+      <c r="N172" t="n">
+        <v>6.324171097576094</v>
+      </c>
+      <c r="O172" t="n">
+        <v>-0.6775544685076429</v>
+      </c>
+      <c r="P172" t="n">
+        <v>-7.001725566083736</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1516</v>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>19.55928611755371</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.689157331677897</v>
+      </c>
+      <c r="F173" t="b">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>12.56566427408224</v>
+      </c>
+      <c r="H173" t="n">
+        <v>44</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-5.097425235224637</v>
+      </c>
+      <c r="J173" t="n">
+        <v>16</v>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>14</v>
+      </c>
+      <c r="M173" t="n">
+        <v>2.346855817025931</v>
+      </c>
+      <c r="N173" t="n">
+        <v>10.87650694240434</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0.6576984853480343</v>
+      </c>
+      <c r="P173" t="n">
+        <v>-10.21880845705631</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1551</v>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="n">
+        <v>21.07806205749512</v>
+      </c>
+      <c r="E174" t="n">
+        <v>17.37871092822125</v>
+      </c>
+      <c r="F174" t="b">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
+        <v>29.33995798591634</v>
+      </c>
+      <c r="H174" t="n">
+        <v>45</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-6.519707873506003</v>
+      </c>
+      <c r="J174" t="n">
+        <v>16</v>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>16</v>
+      </c>
+      <c r="M174" t="n">
+        <v>-5.406020735726954</v>
+      </c>
+      <c r="N174" t="n">
+        <v>11.96124705769509</v>
+      </c>
+      <c r="O174" t="n">
+        <v>-22.7847316639482</v>
+      </c>
+      <c r="P174" t="n">
+        <v>-34.74597872164329</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1581</v>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="n">
+        <v>22.78254699707031</v>
+      </c>
+      <c r="E175" t="n">
+        <v>24.36264171238322</v>
+      </c>
+      <c r="F175" t="b">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>25.73074454312462</v>
+      </c>
+      <c r="H175" t="n">
+        <v>51</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-2.622213984744196</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>10</v>
+      </c>
+      <c r="M175" t="n">
+        <v>9.488894410670062</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1.3681028307414</v>
+      </c>
+      <c r="O175" t="n">
+        <v>-14.87374730171316</v>
+      </c>
+      <c r="P175" t="n">
+        <v>-16.24185013245456</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1622</v>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="n">
+        <v>24.54115295410156</v>
+      </c>
+      <c r="E176" t="n">
+        <v>31.68547915258634</v>
+      </c>
+      <c r="F176" t="b">
+        <v>1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>53.60064331251112</v>
+      </c>
+      <c r="H176" t="n">
+        <v>51</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-2.665466923980669</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
+        <v>21.91516415992478</v>
+      </c>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1630</v>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="n">
+        <v>28.0446605682373</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5.61661631237071</v>
+      </c>
+      <c r="F177" t="b">
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>34.41192744012088</v>
+      </c>
+      <c r="H177" t="n">
+        <v>43</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-14.26755210200105</v>
+      </c>
+      <c r="J177" t="n">
+        <v>48</v>
+      </c>
+      <c r="K177" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
+        <v>28.79531112775017</v>
+      </c>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1667</v>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="n">
+        <v>34.90091705322266</v>
+      </c>
+      <c r="E178" t="n">
+        <v>22.41837582109475</v>
+      </c>
+      <c r="F178" t="b">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>22.56003427950004</v>
+      </c>
+      <c r="H178" t="n">
+        <v>49</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-31.10962106477198</v>
+      </c>
+      <c r="J178" t="n">
+        <v>11</v>
+      </c>
+      <c r="K178" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
+        <v>0.1416584584052956</v>
+      </c>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1691</v>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="n">
+        <v>35.48721313476562</v>
+      </c>
+      <c r="E179" t="n">
+        <v>36.30511805098702</v>
+      </c>
+      <c r="F179" t="b">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>39.0208244000152</v>
+      </c>
+      <c r="H179" t="n">
+        <v>52</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-3.188343272019878</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>47</v>
+      </c>
+      <c r="M179" t="n">
+        <v>28.01629838886524</v>
+      </c>
+      <c r="N179" t="n">
+        <v>2.715706349028181</v>
+      </c>
+      <c r="O179" t="n">
+        <v>-8.288819662121778</v>
+      </c>
+      <c r="P179" t="n">
+        <v>-11.00452601114996</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1716</v>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="n">
+        <v>42.1977653503418</v>
+      </c>
+      <c r="E180" t="n">
+        <v>22.42394180163229</v>
+      </c>
+      <c r="F180" t="b">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>33.4558184359349</v>
+      </c>
+      <c r="H180" t="n">
+        <v>35</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-4.296029629930138</v>
+      </c>
+      <c r="J180" t="n">
+        <v>10</v>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>22</v>
+      </c>
+      <c r="M180" t="n">
+        <v>7.658347022222511</v>
+      </c>
+      <c r="N180" t="n">
+        <v>11.03187663430261</v>
+      </c>
+      <c r="O180" t="n">
+        <v>-14.76559477940978</v>
+      </c>
+      <c r="P180" t="n">
+        <v>-25.79747141371239</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="n">
+        <v>46.29257965087891</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-8.92822621435179</v>
+      </c>
+      <c r="F181" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>21.65097200174024</v>
+      </c>
+      <c r="H181" t="n">
+        <v>11</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-11.3619499467277</v>
+      </c>
+      <c r="J181" t="n">
+        <v>50</v>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>34</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0.2472451905272888</v>
+      </c>
+      <c r="N181" t="n">
+        <v>30.57919821609202</v>
+      </c>
+      <c r="O181" t="n">
+        <v>9.17547140487908</v>
+      </c>
+      <c r="P181" t="n">
+        <v>-21.40372681121295</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="n">
+        <v>54.5722885131836</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-22.59816614214742</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>3.194083745213106</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-34.41161896832826</v>
+      </c>
+      <c r="J182" t="n">
+        <v>44</v>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>24</v>
+      </c>
+      <c r="M182" t="n">
+        <v>-14.96226914430081</v>
+      </c>
+      <c r="N182" t="n">
+        <v>25.79224988736053</v>
+      </c>
+      <c r="O182" t="n">
+        <v>7.635896997846618</v>
+      </c>
+      <c r="P182" t="n">
+        <v>-18.15635288951391</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1807</v>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="n">
+        <v>41.11690902709961</v>
+      </c>
+      <c r="E183" t="n">
+        <v>23.7461788694974</v>
+      </c>
+      <c r="F183" t="b">
+        <v>1</v>
+      </c>
+      <c r="G183" t="n">
+        <v>25.0827380738326</v>
+      </c>
+      <c r="H183" t="n">
+        <v>51</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-5.752984895681861</v>
+      </c>
+      <c r="J183" t="n">
+        <v>3</v>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>42</v>
+      </c>
+      <c r="M183" t="n">
+        <v>6.431179849684805</v>
+      </c>
+      <c r="N183" t="n">
+        <v>1.336559204335206</v>
+      </c>
+      <c r="O183" t="n">
+        <v>-17.31499901981259</v>
+      </c>
+      <c r="P183" t="n">
+        <v>-18.6515582241478</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1825</v>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="n">
+        <v>45.06238174438477</v>
+      </c>
+      <c r="E184" t="n">
+        <v>20.18659706778213</v>
+      </c>
+      <c r="F184" t="b">
+        <v>1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>21.74255024827183</v>
+      </c>
+      <c r="H184" t="n">
+        <v>52</v>
+      </c>
+      <c r="I184" t="n">
+        <v>-3.815500502569145</v>
+      </c>
+      <c r="J184" t="n">
+        <v>25</v>
+      </c>
+      <c r="K184" t="b">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>24</v>
+      </c>
+      <c r="M184" t="n">
+        <v>-2.887486854338837</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1.555953180489698</v>
+      </c>
+      <c r="O184" t="n">
+        <v>-23.07408392212097</v>
+      </c>
+      <c r="P184" t="n">
+        <v>-24.63003710261066</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1872</v>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="n">
+        <v>52.19762802124024</v>
+      </c>
+      <c r="E185" t="n">
+        <v>37.65276565330205</v>
+      </c>
+      <c r="F185" t="b">
+        <v>1</v>
+      </c>
+      <c r="G185" t="n">
+        <v>42.15591810586605</v>
+      </c>
+      <c r="H185" t="n">
+        <v>37</v>
+      </c>
+      <c r="I185" t="n">
+        <v>-2.43238364290502</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="b">
+        <v>1</v>
+      </c>
+      <c r="L185" t="n">
+        <v>43</v>
+      </c>
+      <c r="M185" t="n">
+        <v>30.2327838433652</v>
+      </c>
+      <c r="N185" t="n">
+        <v>4.503152452563995</v>
+      </c>
+      <c r="O185" t="n">
+        <v>-7.419981809936857</v>
+      </c>
+      <c r="P185" t="n">
+        <v>-11.92313426250085</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1878</v>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="n">
+        <v>55.38121795654297</v>
+      </c>
+      <c r="E186" t="n">
+        <v>31.51898345306407</v>
+      </c>
+      <c r="F186" t="b">
+        <v>1</v>
+      </c>
+      <c r="G186" t="n">
+        <v>33.98408355934745</v>
+      </c>
+      <c r="H186" t="n">
+        <v>31</v>
+      </c>
+      <c r="I186" t="n">
+        <v>-2.651834554744181</v>
+      </c>
+      <c r="J186" t="n">
+        <v>2</v>
+      </c>
+      <c r="K186" t="b">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>37</v>
+      </c>
+      <c r="M186" t="n">
+        <v>22.74635080363806</v>
+      </c>
+      <c r="N186" t="n">
+        <v>2.465100106283376</v>
+      </c>
+      <c r="O186" t="n">
+        <v>-8.772632649426011</v>
+      </c>
+      <c r="P186" t="n">
+        <v>-11.23773275570939</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1908</v>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="n">
+        <v>73.20240783691406</v>
+      </c>
+      <c r="E187" t="n">
+        <v>27.69279064692013</v>
+      </c>
+      <c r="F187" t="b">
+        <v>1</v>
+      </c>
+      <c r="G187" t="n">
+        <v>28.42821612857151</v>
+      </c>
+      <c r="H187" t="n">
+        <v>52</v>
+      </c>
+      <c r="I187" t="n">
+        <v>-11.71423430364712</v>
+      </c>
+      <c r="J187" t="n">
+        <v>10</v>
+      </c>
+      <c r="K187" t="b">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>7</v>
+      </c>
+      <c r="M187" t="n">
+        <v>-7.136355099530099</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.735425481651383</v>
+      </c>
+      <c r="O187" t="n">
+        <v>-34.82914574645023</v>
+      </c>
+      <c r="P187" t="n">
+        <v>-35.56457122810161</v>
       </c>
     </row>
   </sheetData>
@@ -6861,7 +9499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7074,40 +9712,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>74.54545454545455</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.32007821844017</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.84976933812933</v>
+      </c>
+      <c r="F4" t="n">
+        <v>28.62125389907833</v>
+      </c>
+      <c r="G4" t="n">
+        <v>27.40933683110003</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-11.09804288330992</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.08925861265987</v>
+      </c>
+      <c r="J4" t="n">
+        <v>74.54545454545455</v>
+      </c>
+      <c r="K4" t="n">
+        <v>23.21951219512195</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29.26829268292683</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-8.118671594270339</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>80</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>20.23759248531923</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>16.93213197547309</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>26.84668586631832</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>30.9004412138247</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-8.923033207728317</v>
       </c>
     </row>
